--- a/biology/Médecine/Pneumocéphale/Pneumocéphale.xlsx
+++ b/biology/Médecine/Pneumocéphale/Pneumocéphale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pneumoc%C3%A9phale</t>
+          <t>Pneumocéphale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le pneumocéphale, appelé aussi pneumocéphalie ou pneumencéphalie, correspond à la présence de gaz dans ou autour de l'encéphale à la suite d'une brèche ostéo-méningée.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pneumoc%C3%A9phale</t>
+          <t>Pneumocéphale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,48 @@
           <t>Terminologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Que ce soit en français ou en anglais, la même affection est décrite sous des termes variés[1] :
-En français
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Que ce soit en français ou en anglais, la même affection est décrite sous des termes variés :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Pneumocéphale</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pneumoc%C3%A9phale</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Terminologie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>En français</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 pneumatocèle intracrânien post-traumatique ;
 pneumatocèle intracrânien traumatique ;
 pneumatocèle intracrânienne ;
@@ -530,7 +580,43 @@
 pneumocéphalie post-traumatique ;
 pneumocéphalie traumatique ;
 pneumo-encéphale.
-En anglais
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Pneumocéphale</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pneumoc%C3%A9phale</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Terminologie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>En anglais</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Airocele, cranial ;
 airoceles, cranial ;
 cranial airocele ;
@@ -553,91 +639,13 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Pneumoc%C3%A9phale</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Pneumoc%C3%A9phale</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Causes</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les causes de pneumocéphale sont celles des brèches ostéo-méningées[2] :
-Traumatisme
-Lésion du crâne ou de la face
-Dans 74 % des cas le pneumocéphale est secondaire à un traumatisme, il serait présent dans 0,5 à 1 % de ces lésions accidentelles du crâne ou de la face[3],[4].
-Cause iatrogène
-Chirurgie
-Deux tiers des craniotomies seraient suivies de pneumocéphale[2]. Un acte de chirurgie endoscopique dans les sinus peut se compliquer exceptionnellement de pneumencéphalie[2]. La mise en place d'un shunt ventriculo-péritonéal peut produire une pression négative ouvrant la brèche à un pneumatocèle intracrânien sous tension[2].
-Médecine
-Un acte médical intrusif (ponction, injection) à proximité du système nerveux central peut involontairement provoquer un pneumocéphale :
-anesthésie péridurale et lésion accidentelle de la dure-mère[5] ;
-blood-patch ;
-Barotraumatisme
-Le pneumocéphale est un accident rare mais grave de plongée sous-marine[6].
-Infection au voisinage
-Une sinusite sphénoïdale[7] ou une tuberculose nasale[8] ont déjà occasionné des pneumocéphales.
-Tumeur érosive
-Qu'elle soit bénigne[9] ou maligne[10],[11], toute lésion tumorale érosive d'un organe creux se développant au voisinage du système nerveux central peut être à l'origine d'un pneumocéphale.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Pneumoc%C3%A9phale</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Pneumoc%C3%A9phale</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Signes et symptômes</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le pneumocéphale est habituellement lié à des maux de tête (38 % des cas), des nausées et vomissements, des crises de convulsion, des vertiges, des déficits neurologiques (léthargie, confusion, hémiparésie, paralysie du nerf abducens)[2].
-</t>
-        </is>
-      </c>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pneumoc%C3%A9phale</t>
+          <t>Pneumocéphale</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -652,15 +660,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Complications</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les pneumocéphales en tension ont un effet de masse, provocant hypertension intracrânienne et risquant la protrusion, l'engagement cérébral[2].
-Des embolies gazeuses[12] et un arrêt cardiaque[13] compliquent très occasionnellement un pneumocéphale.
-Les méningites ascendantes surviennent dans environ 30 % des brèches non colmatées de la base du crâne[14],[15], avec un risque cumulé sur dix ans de 85 %[15].
-Parfois un pneumocéphale iatrogène chirurgical peut provoquer un déficit neurologique focal[2].
+          <t>Causes</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les causes de pneumocéphale sont celles des brèches ostéo-méningées :
 </t>
         </is>
       </c>
@@ -671,7 +678,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pneumoc%C3%A9phale</t>
+          <t>Pneumocéphale</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -686,10 +693,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Examens complémentaires</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
+          <t>Causes</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Traumatisme</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Lésion du crâne ou de la face</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans 74 % des cas le pneumocéphale est secondaire à un traumatisme, il serait présent dans 0,5 à 1 % de ces lésions accidentelles du crâne ou de la face,.
+</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -697,7 +719,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Pneumoc%C3%A9phale</t>
+          <t>Pneumocéphale</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -712,10 +734,269 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Causes</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Traumatisme</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Cause iatrogène</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Chirurgie
+Deux tiers des craniotomies seraient suivies de pneumocéphale. Un acte de chirurgie endoscopique dans les sinus peut se compliquer exceptionnellement de pneumencéphalie. La mise en place d'un shunt ventriculo-péritonéal peut produire une pression négative ouvrant la brèche à un pneumatocèle intracrânien sous tension.
+Médecine
+Un acte médical intrusif (ponction, injection) à proximité du système nerveux central peut involontairement provoquer un pneumocéphale :
+anesthésie péridurale et lésion accidentelle de la dure-mère ;
+blood-patch ;</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Pneumocéphale</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pneumoc%C3%A9phale</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Causes</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Traumatisme</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Barotraumatisme</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le pneumocéphale est un accident rare mais grave de plongée sous-marine.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Pneumocéphale</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pneumoc%C3%A9phale</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Causes</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Infection au voisinage</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une sinusite sphénoïdale ou une tuberculose nasale ont déjà occasionné des pneumocéphales.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Pneumocéphale</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pneumoc%C3%A9phale</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Causes</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Tumeur érosive</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Qu'elle soit bénigne ou maligne toute lésion tumorale érosive d'un organe creux se développant au voisinage du système nerveux central peut être à l'origine d'un pneumocéphale.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Pneumocéphale</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pneumoc%C3%A9phale</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Signes et symptômes</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le pneumocéphale est habituellement lié à des maux de tête (38 % des cas), des nausées et vomissements, des crises de convulsion, des vertiges, des déficits neurologiques (léthargie, confusion, hémiparésie, paralysie du nerf abducens).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Pneumocéphale</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pneumoc%C3%A9phale</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Complications</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les pneumocéphales en tension ont un effet de masse, provocant hypertension intracrânienne et risquant la protrusion, l'engagement cérébral.
+Des embolies gazeuses et un arrêt cardiaque compliquent très occasionnellement un pneumocéphale.
+Les méningites ascendantes surviennent dans environ 30 % des brèches non colmatées de la base du crâne avec un risque cumulé sur dix ans de 85 %.
+Parfois un pneumocéphale iatrogène chirurgical peut provoquer un déficit neurologique focal.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Pneumocéphale</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pneumoc%C3%A9phale</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Examens complémentaires</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Pneumocéphale</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pneumoc%C3%A9phale</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
